--- a/healthman-mock/v2/data/college.xlsx
+++ b/healthman-mock/v2/data/college.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Python\healthman\v2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\graduation\healthman\healthman-mock\v2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1D6641-8BBB-4008-B592-640168A15043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168D84A4-EAA8-497F-96B0-725AD1AD1A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1092" windowWidth="22200" windowHeight="11052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1308" windowWidth="22200" windowHeight="11052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,44 +20,293 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+  <si>
+    <t>土木工程学院</t>
+  </si>
+  <si>
+    <t>X4408</t>
+  </si>
+  <si>
+    <t>66365515、66366664、66366613</t>
+  </si>
+  <si>
+    <t>机械工程学院</t>
+  </si>
+  <si>
+    <t>X2207</t>
+  </si>
+  <si>
+    <t>66366695</t>
+  </si>
+  <si>
+    <t>电气工程学院</t>
+  </si>
+  <si>
+    <t>X10207</t>
+  </si>
+  <si>
+    <t>66361486、66367747</t>
+  </si>
+  <si>
+    <t>信息科学与技术学院</t>
+  </si>
+  <si>
+    <t>X9230</t>
+  </si>
+  <si>
+    <t>66366740</t>
+  </si>
+  <si>
+    <t>交通运输与物流学院</t>
+  </si>
+  <si>
+    <t>交运楼503</t>
+  </si>
+  <si>
+    <t>66366753、66365985</t>
+  </si>
+  <si>
+    <t>计算机与人工智能学院</t>
+  </si>
+  <si>
+    <t>X31535</t>
+  </si>
+  <si>
+    <t>66368236</t>
+  </si>
+  <si>
+    <t>经济管理学院</t>
+  </si>
+  <si>
+    <t>J0619（九里）</t>
+  </si>
+  <si>
+    <t>87634017；87634807</t>
+  </si>
+  <si>
+    <t>外国语学院</t>
+  </si>
+  <si>
+    <t>X30801</t>
+  </si>
+  <si>
+    <t>66366705;66366703</t>
+  </si>
+  <si>
+    <t>材料科学与工程学院</t>
+  </si>
+  <si>
+    <t>X2124</t>
+  </si>
+  <si>
+    <t>66362622</t>
+  </si>
+  <si>
+    <t>地球科学与环境工程学院</t>
+  </si>
+  <si>
+    <t>X4551</t>
+  </si>
+  <si>
+    <t>66366872、66367174</t>
+  </si>
+  <si>
+    <t>建筑学院</t>
+  </si>
+  <si>
+    <t>X8222</t>
+  </si>
+  <si>
+    <t>66367550</t>
+  </si>
+  <si>
+    <t>物理科学与技术学院</t>
+  </si>
+  <si>
+    <t>X5521A</t>
+  </si>
+  <si>
+    <t>66367837</t>
+  </si>
+  <si>
+    <t>人文学院</t>
+  </si>
+  <si>
+    <t>X8203、X8202</t>
+  </si>
+  <si>
+    <t>66366507、66367407</t>
+  </si>
+  <si>
+    <t>公共管理学院</t>
+  </si>
+  <si>
+    <t>01206（九里）</t>
+  </si>
+  <si>
+    <t>87601551</t>
+  </si>
+  <si>
+    <t>设计艺术学院</t>
+  </si>
+  <si>
+    <t>X8206A</t>
+  </si>
+  <si>
+    <t>66368278</t>
+  </si>
+  <si>
+    <t>生命科学与工程学院</t>
+  </si>
+  <si>
+    <t>X6506</t>
+  </si>
+  <si>
+    <t>66367430</t>
+  </si>
+  <si>
+    <t>力学与航空航天学院</t>
+  </si>
+  <si>
+    <t>X30281</t>
+  </si>
+  <si>
+    <t>66366799</t>
+  </si>
+  <si>
+    <t>数学学院</t>
+  </si>
+  <si>
+    <t>X30446</t>
+  </si>
+  <si>
+    <t>66369921、66367098</t>
+  </si>
+  <si>
+    <t>马克思主义学院</t>
+  </si>
+  <si>
+    <t>X31229</t>
+  </si>
+  <si>
+    <t>66367802</t>
+  </si>
+  <si>
+    <t>心理研究与咨询中心</t>
+  </si>
+  <si>
+    <t>X5324-2</t>
+  </si>
+  <si>
+    <t>66367216</t>
+  </si>
+  <si>
+    <t>利兹学院</t>
+  </si>
+  <si>
+    <t>X9416A</t>
+  </si>
+  <si>
+    <t>66367105</t>
+  </si>
+  <si>
+    <t>茅以升学院</t>
+  </si>
+  <si>
+    <t>T211022</t>
+  </si>
+  <si>
+    <t>66367983</t>
+  </si>
+  <si>
+    <t>智慧城市与交通学院</t>
+  </si>
+  <si>
+    <t>X31626</t>
+  </si>
+  <si>
+    <t>66368168</t>
+  </si>
+  <si>
+    <t>少数民族预科</t>
+  </si>
+  <si>
+    <t>体育学院</t>
+  </si>
+  <si>
+    <t>犀浦校区一食堂五楼509</t>
+  </si>
+  <si>
+    <t>66366577?66367429?0</t>
+  </si>
+  <si>
+    <t>图书馆</t>
+  </si>
+  <si>
+    <t>图书馆A208</t>
+  </si>
+  <si>
+    <t>66366532</t>
+  </si>
+  <si>
+    <t>医学院</t>
+  </si>
+  <si>
+    <t>武装部、军事教研室</t>
+  </si>
+  <si>
+    <t>犀浦校区五食堂314</t>
+  </si>
+  <si>
+    <t>66366050</t>
+  </si>
+  <si>
+    <t>附属中学</t>
+  </si>
+  <si>
+    <t>工程训练中心</t>
+  </si>
+  <si>
+    <t>犀浦校区工程训练中心A座308</t>
+  </si>
+  <si>
+    <t>66367763</t>
+  </si>
+  <si>
+    <t>国际教育学院</t>
+  </si>
+  <si>
+    <t>教务处</t>
+  </si>
+  <si>
+    <t>学院代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>学院名称</t>
-  </si>
-  <si>
-    <t>负责人</t>
-  </si>
-  <si>
-    <t>办公室</t>
-  </si>
-  <si>
-    <t>电话</t>
-  </si>
-  <si>
-    <t>主页</t>
-  </si>
-  <si>
-    <t>学院代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -109,12 +358,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -123,74 +369,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -207,7 +385,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="5C616C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -487,41 +665,451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>678</v>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/healthman-mock/v2/data/college.xlsx
+++ b/healthman-mock/v2/data/college.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\graduation\healthman\healthman-mock\v2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168D84A4-EAA8-497F-96B0-725AD1AD1A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6BB5C8-D7D5-43BB-9C9A-56098E38DF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1308" windowWidth="22200" windowHeight="11052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="372" yWindow="708" windowWidth="22200" windowHeight="11052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>土木工程学院</t>
   </si>
@@ -293,6 +293,14 @@
   </si>
   <si>
     <t>学院名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://windcf.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +339,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -354,15 +362,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -665,18 +688,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="43.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -689,8 +714,11 @@
       <c r="D1" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -703,8 +731,11 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -717,8 +748,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -731,8 +765,11 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -745,8 +782,11 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -759,8 +799,11 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -773,8 +816,11 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -787,8 +833,11 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -801,8 +850,11 @@
       <c r="D9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -815,8 +867,11 @@
       <c r="D10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -829,8 +884,11 @@
       <c r="D11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -843,8 +901,11 @@
       <c r="D12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -857,8 +918,11 @@
       <c r="D13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -871,8 +935,11 @@
       <c r="D14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>26</v>
       </c>
@@ -885,8 +952,11 @@
       <c r="D15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>25</v>
       </c>
@@ -899,8 +969,11 @@
       <c r="D16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -913,8 +986,11 @@
       <c r="D17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
@@ -927,8 +1003,11 @@
       <c r="D18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -941,8 +1020,11 @@
       <c r="D19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>29</v>
       </c>
@@ -955,8 +1037,11 @@
       <c r="D20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>67</v>
       </c>
@@ -969,8 +1054,11 @@
       <c r="D21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>33</v>
       </c>
@@ -983,8 +1071,11 @@
       <c r="D22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32</v>
       </c>
@@ -997,8 +1088,11 @@
       <c r="D23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>17</v>
       </c>
@@ -1011,16 +1105,22 @@
       <c r="D24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>120</v>
       </c>
       <c r="B25" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -1033,8 +1133,11 @@
       <c r="D26" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20</v>
       </c>
@@ -1047,16 +1150,22 @@
       <c r="D27" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>31</v>
       </c>
@@ -1069,16 +1178,22 @@
       <c r="D29" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>50</v>
       </c>
       <c r="B30" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>66</v>
       </c>
@@ -1091,21 +1206,30 @@
       <c r="D31" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>55</v>
       </c>
       <c r="B32" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E32" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>63</v>
       </c>
       <c r="B33" t="s">
         <v>85</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
